--- a/src/assets/OPRFileImport/(OPR)Import req/(OPR)Import Request.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import req/(OPR)Import Request.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F255C26-229B-4B43-B984-ECB1EF08E5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC28A1D-7423-42E2-8D3D-B37BC2BAE15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>company_code</t>
   </si>
   <si>
-    <t>worker_code</t>
-  </si>
-  <si>
     <t>รหัสบริษัท</t>
   </si>
   <si>
@@ -46,27 +43,6 @@
   </si>
   <si>
     <t>P - ผ่านการเกณฑ์ทหารแล้ว</t>
-  </si>
-  <si>
-    <t>card_no</t>
-  </si>
-  <si>
-    <t>blacklist_fname_th</t>
-  </si>
-  <si>
-    <t>blacklist_lname_th</t>
-  </si>
-  <si>
-    <t>blacklist_fname_en</t>
-  </si>
-  <si>
-    <t>blacklist_lname_en</t>
-  </si>
-  <si>
-    <t>reason_code</t>
-  </si>
-  <si>
-    <t>blacklist_note</t>
   </si>
   <si>
     <t>เพิ่มเติม</t>
@@ -133,7 +109,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +129,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -199,6 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -520,35 +507,43 @@
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -562,15 +557,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
     <col min="5" max="5" width="25.21875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
@@ -600,94 +595,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C3" s="5">
+        <v>44927</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
